--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지10.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791FDC2B-CA55-4F3A-8E4D-721AD3AD0213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89B9B0-66DC-4007-AB23-A08227431322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1483">
   <si>
     <t>Time</t>
   </si>
@@ -4483,6 +4483,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -4854,20 +4857,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="53.75" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4881,10 +4883,10 @@
         <v>1481</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4914,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4944,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5022,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5082,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5100,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5115,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5130,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5220,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5340,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5373,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5388,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5403,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5418,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5496,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5511,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5544,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5577,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -5640,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5748,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -5871,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -5991,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6069,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6099,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -6255,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6345,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -6468,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -6501,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -6549,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -6597,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -6612,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -6675,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -6858,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -6906,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -6957,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -7053,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -7068,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>297</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>299</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>301</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>303</v>
       </c>
@@ -7239,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>305</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>307</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>309</v>
       </c>
@@ -7284,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -7299,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -7344,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>321</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -7389,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>325</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>327</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -7452,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -7497,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>347</v>
       </c>
@@ -7572,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>349</v>
       </c>
@@ -7587,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>351</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>353</v>
       </c>
@@ -7620,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>355</v>
       </c>
@@ -7635,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>357</v>
       </c>
@@ -7650,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>361</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -7698,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>365</v>
       </c>
@@ -7716,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>367</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>369</v>
       </c>
@@ -7746,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -7761,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>375</v>
       </c>
@@ -7791,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>377</v>
       </c>
@@ -7806,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>379</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>381</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>383</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>385</v>
       </c>
@@ -7866,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>387</v>
       </c>
@@ -7884,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>389</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>391</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>393</v>
       </c>
@@ -7932,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>395</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>397</v>
       </c>
@@ -7962,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>399</v>
       </c>
@@ -7977,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>403</v>
       </c>
@@ -8010,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>405</v>
       </c>
@@ -8025,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>407</v>
       </c>
@@ -8040,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>409</v>
       </c>
@@ -8055,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>411</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>413</v>
       </c>
@@ -8085,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>415</v>
       </c>
@@ -8100,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>417</v>
       </c>
@@ -8118,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -8148,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>423</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>425</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>427</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>429</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>431</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>433</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>435</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>437</v>
       </c>
@@ -8274,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>439</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>441</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>443</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>445</v>
       </c>
@@ -8334,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>447</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -8364,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>451</v>
       </c>
@@ -8379,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>453</v>
       </c>
@@ -8394,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>455</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>457</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>459</v>
       </c>
@@ -8439,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -8472,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>465</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>467</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>469</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>471</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>473</v>
       </c>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>475</v>
       </c>
@@ -8568,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>477</v>
       </c>
@@ -8586,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>479</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -8616,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -8631,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>485</v>
       </c>
@@ -8646,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>487</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>489</v>
       </c>
@@ -8679,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>491</v>
       </c>
@@ -8697,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>493</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>495</v>
       </c>
@@ -8727,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>497</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>499</v>
       </c>
@@ -8760,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>501</v>
       </c>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>503</v>
       </c>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>505</v>
       </c>
@@ -8805,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>507</v>
       </c>
@@ -8820,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>509</v>
       </c>
@@ -8835,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>511</v>
       </c>
@@ -8850,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>513</v>
       </c>
@@ -8868,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>515</v>
       </c>
@@ -8883,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>517</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>519</v>
       </c>
@@ -8913,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>521</v>
       </c>
@@ -8928,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>523</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>525</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>527</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>529</v>
       </c>
@@ -8988,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>531</v>
       </c>
@@ -9003,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>533</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>535</v>
       </c>
@@ -9036,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>537</v>
       </c>
@@ -9051,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>539</v>
       </c>
@@ -9066,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>541</v>
       </c>
@@ -9081,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>542</v>
       </c>
@@ -9096,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>544</v>
       </c>
@@ -9111,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>546</v>
       </c>
@@ -9126,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -9141,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -9156,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -9186,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>557</v>
       </c>
@@ -9216,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>559</v>
       </c>
@@ -9231,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>561</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>563</v>
       </c>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>565</v>
       </c>
@@ -9276,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>567</v>
       </c>
@@ -9291,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>569</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>569</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>572</v>
       </c>
@@ -9336,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>574</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>576</v>
       </c>
@@ -9366,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>578</v>
       </c>
@@ -9381,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>580</v>
       </c>
@@ -9396,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>581</v>
       </c>
@@ -9411,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>583</v>
       </c>
@@ -9426,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>585</v>
       </c>
@@ -9441,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>587</v>
       </c>
@@ -9456,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>589</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>591</v>
       </c>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>593</v>
       </c>
@@ -9507,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>594</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>596</v>
       </c>
@@ -9537,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>598</v>
       </c>
@@ -9552,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>600</v>
       </c>
@@ -9567,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>602</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>604</v>
       </c>
@@ -9597,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>606</v>
       </c>
@@ -9612,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>608</v>
       </c>
@@ -9627,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>609</v>
       </c>
@@ -9642,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>611</v>
       </c>
@@ -9657,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>613</v>
       </c>
@@ -9672,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>615</v>
       </c>
@@ -9687,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>617</v>
       </c>
@@ -9702,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>618</v>
       </c>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>620</v>
       </c>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>622</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>624</v>
       </c>
@@ -9762,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>626</v>
       </c>
@@ -9780,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>628</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>630</v>
       </c>
@@ -9810,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>631</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>632</v>
       </c>
@@ -9843,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>634</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>636</v>
       </c>
@@ -9873,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>638</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>640</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>642</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>644</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>646</v>
       </c>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>648</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>650</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>652</v>
       </c>
@@ -9993,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>654</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>656</v>
       </c>
@@ -10023,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>658</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>660</v>
       </c>
@@ -10053,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>662</v>
       </c>
@@ -10068,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>664</v>
       </c>
@@ -10083,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>666</v>
       </c>
@@ -10098,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>668</v>
       </c>
@@ -10113,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>670</v>
       </c>
@@ -10128,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>672</v>
       </c>
@@ -10143,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>674</v>
       </c>
@@ -10158,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>676</v>
       </c>
@@ -10173,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>678</v>
       </c>
@@ -10188,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>680</v>
       </c>
@@ -10203,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>682</v>
       </c>
@@ -10221,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>684</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>686</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>688</v>
       </c>
@@ -10266,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>690</v>
       </c>
@@ -10281,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>692</v>
       </c>
@@ -10296,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>694</v>
       </c>
@@ -10311,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>696</v>
       </c>
@@ -10326,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>698</v>
       </c>
@@ -10341,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>700</v>
       </c>
@@ -10359,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>702</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>704</v>
       </c>
@@ -10389,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>706</v>
       </c>
@@ -10404,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>708</v>
       </c>
@@ -10419,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>710</v>
       </c>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>712</v>
       </c>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>714</v>
       </c>
@@ -10464,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>716</v>
       </c>
@@ -10479,7 +10481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>718</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>720</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>722</v>
       </c>
@@ -10524,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>724</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>726</v>
       </c>
@@ -10554,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>728</v>
       </c>
@@ -10569,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>730</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>732</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>734</v>
       </c>
@@ -10617,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>736</v>
       </c>
@@ -10632,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>738</v>
       </c>
@@ -10647,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>740</v>
       </c>
@@ -10662,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>742</v>
       </c>
@@ -10677,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>744</v>
       </c>
@@ -10692,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>746</v>
       </c>
@@ -10707,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>748</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>750</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>752</v>
       </c>
@@ -10755,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>754</v>
       </c>
@@ -10770,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>756</v>
       </c>
@@ -10785,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>758</v>
       </c>
@@ -10800,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>760</v>
       </c>
@@ -10815,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>762</v>
       </c>
@@ -10830,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>764</v>
       </c>
@@ -10845,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>766</v>
       </c>
@@ -10860,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>768</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>770</v>
       </c>
@@ -10890,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>772</v>
       </c>
@@ -10905,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>774</v>
       </c>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>776</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>778</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>780</v>
       </c>
@@ -10968,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>782</v>
       </c>
@@ -10983,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>784</v>
       </c>
@@ -10998,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>786</v>
       </c>
@@ -11016,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>788</v>
       </c>
@@ -11031,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>790</v>
       </c>
@@ -11046,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>792</v>
       </c>
@@ -11061,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>794</v>
       </c>
@@ -11076,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>796</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>798</v>
       </c>
@@ -11106,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>800</v>
       </c>
@@ -11121,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>802</v>
       </c>
@@ -11136,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>804</v>
       </c>
@@ -11151,7 +11153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>806</v>
       </c>
@@ -11166,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>808</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>810</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>812</v>
       </c>
@@ -11211,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>814</v>
       </c>
@@ -11226,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>816</v>
       </c>
@@ -11241,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>818</v>
       </c>
@@ -11256,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>820</v>
       </c>
@@ -11271,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>822</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>824</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>826</v>
       </c>
@@ -11319,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>828</v>
       </c>
@@ -11334,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>830</v>
       </c>
@@ -11349,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>832</v>
       </c>
@@ -11364,7 +11366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>834</v>
       </c>
@@ -11379,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>836</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>838</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>840</v>
       </c>
@@ -11424,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>842</v>
       </c>
@@ -11439,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>844</v>
       </c>
@@ -11454,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>846</v>
       </c>
@@ -11469,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>848</v>
       </c>
@@ -11484,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>850</v>
       </c>
@@ -11499,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>852</v>
       </c>
@@ -11514,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>854</v>
       </c>
@@ -11529,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>856</v>
       </c>
@@ -11544,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>858</v>
       </c>
@@ -11559,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>860</v>
       </c>
@@ -11574,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>862</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>864</v>
       </c>
@@ -11604,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>865</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>867</v>
       </c>
@@ -11634,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>869</v>
       </c>
@@ -11652,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>871</v>
       </c>
@@ -11667,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>873</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>875</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>877</v>
       </c>
@@ -11712,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>879</v>
       </c>
@@ -11727,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>881</v>
       </c>
@@ -11742,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>883</v>
       </c>
@@ -11757,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>885</v>
       </c>
@@ -11772,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>887</v>
       </c>
@@ -11787,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>889</v>
       </c>
@@ -11802,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>891</v>
       </c>
@@ -11817,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>893</v>
       </c>
@@ -11832,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>895</v>
       </c>
@@ -11847,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>897</v>
       </c>
@@ -11862,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>899</v>
       </c>
@@ -11877,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>901</v>
       </c>
@@ -11892,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>903</v>
       </c>
@@ -11907,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>905</v>
       </c>
@@ -11922,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>907</v>
       </c>
@@ -11940,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>909</v>
       </c>
@@ -11955,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>911</v>
       </c>
@@ -11970,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>913</v>
       </c>
@@ -11985,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>915</v>
       </c>
@@ -12000,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>917</v>
       </c>
@@ -12015,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>919</v>
       </c>
@@ -12030,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>921</v>
       </c>
@@ -12045,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>923</v>
       </c>
@@ -12060,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>925</v>
       </c>
@@ -12075,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>927</v>
       </c>
@@ -12090,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>929</v>
       </c>
@@ -12105,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>931</v>
       </c>
@@ -12120,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>933</v>
       </c>
@@ -12135,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>935</v>
       </c>
@@ -12153,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>937</v>
       </c>
@@ -12168,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>939</v>
       </c>
@@ -12183,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>941</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>943</v>
       </c>
@@ -12213,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>945</v>
       </c>
@@ -12228,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>947</v>
       </c>
@@ -12243,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>949</v>
       </c>
@@ -12258,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>951</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>953</v>
       </c>
@@ -12288,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>955</v>
       </c>
@@ -12303,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>957</v>
       </c>
@@ -12318,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>959</v>
       </c>
@@ -12333,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>961</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>963</v>
       </c>
@@ -12366,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>965</v>
       </c>
@@ -12381,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>967</v>
       </c>
@@ -12396,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>969</v>
       </c>
@@ -12411,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>971</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>973</v>
       </c>
@@ -12441,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>975</v>
       </c>
@@ -12456,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>977</v>
       </c>
@@ -12474,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>979</v>
       </c>
@@ -12489,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>981</v>
       </c>
@@ -12504,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>983</v>
       </c>
@@ -12519,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>985</v>
       </c>
@@ -12534,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>987</v>
       </c>
@@ -12549,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>989</v>
       </c>
@@ -12564,7 +12566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>991</v>
       </c>
@@ -12579,7 +12581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>993</v>
       </c>
@@ -12594,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>995</v>
       </c>
@@ -12609,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>997</v>
       </c>
@@ -12624,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>999</v>
       </c>
@@ -12639,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1001</v>
       </c>
@@ -12654,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1003</v>
       </c>
@@ -12669,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1005</v>
       </c>
@@ -12684,7 +12686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1007</v>
       </c>
@@ -12699,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1009</v>
       </c>
@@ -12714,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1011</v>
       </c>
@@ -12729,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1013</v>
       </c>
@@ -12744,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1015</v>
       </c>
@@ -12759,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1017</v>
       </c>
@@ -12777,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1019</v>
       </c>
@@ -12792,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1021</v>
       </c>
@@ -12807,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1023</v>
       </c>
@@ -12822,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1025</v>
       </c>
@@ -12837,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1027</v>
       </c>
@@ -12852,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1029</v>
       </c>
@@ -12867,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1031</v>
       </c>
@@ -12882,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1033</v>
       </c>
@@ -12897,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1035</v>
       </c>
@@ -12912,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1037</v>
       </c>
@@ -12927,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1039</v>
       </c>
@@ -12942,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1041</v>
       </c>
@@ -12957,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1043</v>
       </c>
@@ -12972,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1045</v>
       </c>
@@ -12987,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1047</v>
       </c>
@@ -13002,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1049</v>
       </c>
@@ -13020,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1051</v>
       </c>
@@ -13035,7 +13037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1053</v>
       </c>
@@ -13050,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1055</v>
       </c>
@@ -13068,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1057</v>
       </c>
@@ -13083,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1059</v>
       </c>
@@ -13098,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1061</v>
       </c>
@@ -13113,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1063</v>
       </c>
@@ -13128,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1065</v>
       </c>
@@ -13143,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1067</v>
       </c>
@@ -13158,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1068</v>
       </c>
@@ -13173,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1070</v>
       </c>
@@ -13188,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1072</v>
       </c>
@@ -13203,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1074</v>
       </c>
@@ -13218,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1076</v>
       </c>
@@ -13233,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1078</v>
       </c>
@@ -13248,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1080</v>
       </c>
@@ -13263,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1082</v>
       </c>
@@ -13281,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1084</v>
       </c>
@@ -13296,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1086</v>
       </c>
@@ -13311,7 +13313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1088</v>
       </c>
@@ -13326,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1090</v>
       </c>
@@ -13341,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1092</v>
       </c>
@@ -13356,7 +13358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1094</v>
       </c>
@@ -13371,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1096</v>
       </c>
@@ -13389,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1098</v>
       </c>
@@ -13404,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1100</v>
       </c>
@@ -13419,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1102</v>
       </c>
@@ -13434,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1104</v>
       </c>
@@ -13452,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1106</v>
       </c>
@@ -13467,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1108</v>
       </c>
@@ -13482,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1110</v>
       </c>
@@ -13497,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1112</v>
       </c>
@@ -13512,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1114</v>
       </c>
@@ -13527,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1116</v>
       </c>
@@ -13542,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1118</v>
       </c>
@@ -13557,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1120</v>
       </c>
@@ -13572,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1122</v>
       </c>
@@ -13590,7 +13592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1124</v>
       </c>
@@ -13605,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1126</v>
       </c>
@@ -13620,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1128</v>
       </c>
@@ -13635,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1130</v>
       </c>
@@ -13650,7 +13652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1132</v>
       </c>
@@ -13665,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1134</v>
       </c>
@@ -13680,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1136</v>
       </c>
@@ -13695,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1138</v>
       </c>
@@ -13710,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1140</v>
       </c>
@@ -13725,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1142</v>
       </c>
@@ -13740,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1144</v>
       </c>
@@ -13755,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1146</v>
       </c>
@@ -13773,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1148</v>
       </c>
@@ -13788,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1150</v>
       </c>
@@ -13803,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1152</v>
       </c>
@@ -13818,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1154</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1156</v>
       </c>
@@ -13848,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1158</v>
       </c>
@@ -13863,7 +13865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1159</v>
       </c>
@@ -13878,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1161</v>
       </c>
@@ -13893,7 +13895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1163</v>
       </c>
@@ -13908,7 +13910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1165</v>
       </c>
@@ -13923,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1167</v>
       </c>
@@ -13938,7 +13940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1169</v>
       </c>
@@ -13953,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1171</v>
       </c>
@@ -13968,7 +13970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1173</v>
       </c>
@@ -13983,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1175</v>
       </c>
@@ -13998,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1177</v>
       </c>
@@ -14013,7 +14015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1179</v>
       </c>
@@ -14028,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1181</v>
       </c>
@@ -14043,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1183</v>
       </c>
@@ -14058,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1185</v>
       </c>
@@ -14073,7 +14075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1187</v>
       </c>
@@ -14088,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1189</v>
       </c>
@@ -14103,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1191</v>
       </c>
@@ -14118,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1193</v>
       </c>
@@ -14133,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1195</v>
       </c>
@@ -14148,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1197</v>
       </c>
@@ -14163,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1198</v>
       </c>
@@ -14178,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1200</v>
       </c>
@@ -14193,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1202</v>
       </c>
@@ -14208,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1204</v>
       </c>
@@ -14223,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1206</v>
       </c>
@@ -14241,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1208</v>
       </c>
@@ -14256,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1210</v>
       </c>
@@ -14274,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1212</v>
       </c>
@@ -14292,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1213</v>
       </c>
@@ -14310,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1215</v>
       </c>
@@ -14325,7 +14327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1217</v>
       </c>
@@ -14340,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1219</v>
       </c>
@@ -14355,7 +14357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1221</v>
       </c>
@@ -14373,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1223</v>
       </c>
@@ -14388,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1225</v>
       </c>
@@ -14403,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1227</v>
       </c>
@@ -14418,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1229</v>
       </c>
@@ -14433,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1231</v>
       </c>
@@ -14448,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1233</v>
       </c>
@@ -14463,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1235</v>
       </c>
@@ -14478,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1237</v>
       </c>
@@ -14493,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1239</v>
       </c>
@@ -14508,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1241</v>
       </c>
@@ -14523,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1243</v>
       </c>
@@ -14538,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1245</v>
       </c>
@@ -14556,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1247</v>
       </c>
@@ -14571,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1249</v>
       </c>
@@ -14586,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1251</v>
       </c>
@@ -14601,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1253</v>
       </c>
@@ -14616,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1255</v>
       </c>
@@ -14631,7 +14633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1257</v>
       </c>
@@ -14646,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1259</v>
       </c>
@@ -14661,7 +14663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1261</v>
       </c>
@@ -14676,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1263</v>
       </c>
@@ -14691,7 +14693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1265</v>
       </c>
@@ -14706,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1267</v>
       </c>
@@ -14724,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1269</v>
       </c>
@@ -14739,7 +14741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1271</v>
       </c>
@@ -14754,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1273</v>
       </c>
@@ -14769,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1275</v>
       </c>
@@ -14784,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1277</v>
       </c>
@@ -14799,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1279</v>
       </c>
@@ -14814,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1281</v>
       </c>
@@ -14829,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1283</v>
       </c>
@@ -14844,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1285</v>
       </c>
@@ -14859,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1287</v>
       </c>
@@ -14874,7 +14876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1289</v>
       </c>
@@ -14889,7 +14891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1291</v>
       </c>
@@ -14907,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1293</v>
       </c>
@@ -14922,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1295</v>
       </c>
@@ -14937,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1297</v>
       </c>
@@ -14952,7 +14954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1299</v>
       </c>
@@ -14967,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1301</v>
       </c>
@@ -14982,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1303</v>
       </c>
@@ -14997,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1305</v>
       </c>
@@ -15012,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1307</v>
       </c>
@@ -15027,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1309</v>
       </c>
@@ -15042,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1311</v>
       </c>
@@ -15057,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1313</v>
       </c>
@@ -15072,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1315</v>
       </c>
@@ -15087,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1317</v>
       </c>
@@ -15102,7 +15104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1319</v>
       </c>
@@ -15120,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1321</v>
       </c>
@@ -15135,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1323</v>
       </c>
@@ -15153,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1325</v>
       </c>
@@ -15168,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1327</v>
       </c>
@@ -15183,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1329</v>
       </c>
@@ -15198,7 +15200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1331</v>
       </c>
@@ -15213,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1333</v>
       </c>
@@ -15231,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1335</v>
       </c>
@@ -15246,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1337</v>
       </c>
@@ -15261,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1339</v>
       </c>
@@ -15276,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1341</v>
       </c>
@@ -15291,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1343</v>
       </c>
@@ -15306,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1345</v>
       </c>
@@ -15321,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1347</v>
       </c>
@@ -15339,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1349</v>
       </c>
@@ -15357,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1351</v>
       </c>
@@ -15372,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1353</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1355</v>
       </c>
@@ -15402,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1357</v>
       </c>
@@ -15417,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1359</v>
       </c>
@@ -15432,7 +15434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1361</v>
       </c>
@@ -15447,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1363</v>
       </c>
@@ -15462,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1365</v>
       </c>
@@ -15480,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1367</v>
       </c>
@@ -15495,7 +15497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1369</v>
       </c>
@@ -15510,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1371</v>
       </c>
@@ -15525,7 +15527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1373</v>
       </c>
@@ -15540,7 +15542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1375</v>
       </c>
@@ -15555,7 +15557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1377</v>
       </c>
@@ -15570,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1379</v>
       </c>
@@ -15585,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1381</v>
       </c>
@@ -15600,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1383</v>
       </c>
@@ -15615,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1385</v>
       </c>
@@ -15630,7 +15632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1387</v>
       </c>
@@ -15645,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1389</v>
       </c>
@@ -15660,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1391</v>
       </c>
@@ -15675,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1392</v>
       </c>
@@ -15690,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1394</v>
       </c>
@@ -15705,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1396</v>
       </c>
@@ -15720,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1397</v>
       </c>
@@ -15735,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1399</v>
       </c>
@@ -15753,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1401</v>
       </c>
@@ -15768,7 +15770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1403</v>
       </c>
@@ -15783,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1404</v>
       </c>
@@ -15798,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1405</v>
       </c>
@@ -15813,7 +15815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1407</v>
       </c>
@@ -15828,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1409</v>
       </c>
@@ -15843,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1411</v>
       </c>
@@ -15858,7 +15860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1413</v>
       </c>
@@ -15873,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1415</v>
       </c>
@@ -15888,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1417</v>
       </c>
@@ -15903,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1418</v>
       </c>
@@ -15918,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1420</v>
       </c>
@@ -15933,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1422</v>
       </c>
@@ -15948,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1424</v>
       </c>
@@ -15963,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1425</v>
       </c>
@@ -15978,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1427</v>
       </c>
@@ -15993,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1429</v>
       </c>
@@ -16008,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1431</v>
       </c>
@@ -16023,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1433</v>
       </c>
@@ -16038,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1435</v>
       </c>
@@ -16053,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1437</v>
       </c>
@@ -16068,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1439</v>
       </c>
@@ -16083,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1441</v>
       </c>
@@ -16098,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1443</v>
       </c>
@@ -16113,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1445</v>
       </c>
@@ -16128,7 +16130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1447</v>
       </c>
@@ -16143,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1449</v>
       </c>
@@ -16158,7 +16160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1451</v>
       </c>
@@ -16173,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1453</v>
       </c>
@@ -16188,7 +16190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1455</v>
       </c>
@@ -16206,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1457</v>
       </c>
@@ -16221,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1459</v>
       </c>
@@ -16236,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1461</v>
       </c>
@@ -16254,7 +16256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1463</v>
       </c>
@@ -16269,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1465</v>
       </c>
@@ -16284,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1467</v>
       </c>
@@ -16299,7 +16301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1469</v>
       </c>
@@ -16314,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1471</v>
       </c>
@@ -16329,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1473</v>
       </c>
@@ -16344,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1475</v>
       </c>
@@ -16362,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1477</v>
       </c>
@@ -16377,7 +16379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1479</v>
       </c>
@@ -16396,16 +16398,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E751" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E751" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지10.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FA5662-3E08-4FA1-BFF8-2556D5A075A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCFB51A-B7FD-49E3-B40A-42E09C06AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1131" yWindow="1131" windowWidth="15918" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4860,7 +4860,7 @@
   <dimension ref="A1:F751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4901,7 +4901,6 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4916,11 +4915,10 @@
         <v>2.9872125014662739E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4935,11 +4933,10 @@
         <v>0.98532593250274658</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4954,11 +4951,10 @@
         <v>3.5318788141012192E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4973,11 +4969,10 @@
         <v>1.3788833282887941E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4992,11 +4987,10 @@
         <v>1.4553253538906571E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5011,11 +5005,10 @@
         <v>0.98385149240493774</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -5033,11 +5026,10 @@
         <v>2.7064342051744461E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5052,11 +5044,10 @@
         <v>1.369274873286486E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5071,11 +5062,10 @@
         <v>0.98547548055648804</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5090,11 +5080,10 @@
         <v>1.6850190237164501E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5109,11 +5098,10 @@
         <v>0.21758309006690979</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5128,11 +5116,10 @@
         <v>0.96728789806365967</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5147,11 +5134,10 @@
         <v>0.98546463251113892</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15">
@@ -5169,11 +5155,10 @@
         <v>0.21759688854217529</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5188,11 +5173,10 @@
         <v>1.376936212182045E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5207,11 +5191,10 @@
         <v>1.595532521605492E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5226,11 +5209,10 @@
         <v>1.377030648291111E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5245,11 +5227,10 @@
         <v>0.98546314239501953</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5264,11 +5245,10 @@
         <v>0.98219448328018188</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5283,11 +5263,10 @@
         <v>0.98526042699813843</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5302,11 +5281,10 @@
         <v>0.98539572954177856</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5321,11 +5299,10 @@
         <v>1.7961187288165089E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5340,11 +5317,10 @@
         <v>0.9854775071144104</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5359,11 +5335,10 @@
         <v>0.98470437526702881</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5378,11 +5353,10 @@
         <v>0.98452764749526978</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5397,11 +5371,10 @@
         <v>0.98539549112319946</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5416,11 +5389,10 @@
         <v>2.9873494058847431E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5435,11 +5407,10 @@
         <v>0.98543184995651245</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5454,11 +5425,10 @@
         <v>0.98547863960266113</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5473,11 +5443,10 @@
         <v>0.98536193370819092</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5492,11 +5461,10 @@
         <v>0.98538821935653687</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -5514,11 +5482,10 @@
         <v>0.98403072357177734</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5533,11 +5500,10 @@
         <v>1.4766900800168511E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5552,11 +5518,10 @@
         <v>3.823423758149147E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5571,11 +5536,10 @@
         <v>1.438954938203096E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5590,11 +5554,10 @@
         <v>1.384211983531713E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5609,11 +5572,10 @@
         <v>1.567930914461613E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5628,11 +5590,10 @@
         <v>4.6872016042470932E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5647,11 +5608,10 @@
         <v>0.9854770302772522</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41">
@@ -5669,11 +5629,10 @@
         <v>0.98540568351745605</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5688,11 +5647,10 @@
         <v>0.75958901643753052</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43">
@@ -5710,11 +5668,10 @@
         <v>0.98534518480300903</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5729,11 +5686,10 @@
         <v>0.98548489809036255</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45">
@@ -5751,11 +5707,10 @@
         <v>1.3662733137607569E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5770,11 +5725,10 @@
         <v>0.98487025499343872</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47">
@@ -5792,11 +5746,10 @@
         <v>0.98546439409255981</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5811,11 +5764,10 @@
         <v>0.98502177000045776</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5830,11 +5782,10 @@
         <v>0.21845187246799469</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5849,11 +5800,10 @@
         <v>0.21738678216934201</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5868,11 +5818,10 @@
         <v>1.3818998821079729E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5887,11 +5836,10 @@
         <v>0.98516559600830078</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5906,11 +5854,10 @@
         <v>0.98519843816757202</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F54">
@@ -5928,11 +5875,10 @@
         <v>1.367210503667593E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5947,11 +5893,10 @@
         <v>1.37570183724165E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5966,11 +5911,10 @@
         <v>0.21741589903831479</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5985,11 +5929,10 @@
         <v>0.21754927933216089</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6004,11 +5947,10 @@
         <v>1.390285603702068E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6023,11 +5965,10 @@
         <v>0.2173499912023544</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6042,11 +5983,10 @@
         <v>1.382275577634573E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6061,11 +6001,10 @@
         <v>1.380972098559141E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6080,11 +6019,10 @@
         <v>1.537021901458502E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6099,11 +6037,10 @@
         <v>0.924141526222229</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F64">
@@ -6121,11 +6058,10 @@
         <v>1.3840544037520891E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6140,11 +6076,10 @@
         <v>1.39866229146719E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -6159,11 +6094,10 @@
         <v>1.3826563954353331E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6178,11 +6112,10 @@
         <v>1.3826669193804261E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6197,11 +6130,10 @@
         <v>1.3968275859951969E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6216,11 +6148,10 @@
         <v>1.465760078281164E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6235,11 +6166,10 @@
         <v>1.627350598573685E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6254,11 +6184,10 @@
         <v>1.382749527692795E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6273,11 +6202,10 @@
         <v>1.3809747062623501E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6292,11 +6220,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6311,11 +6238,10 @@
         <v>1.8931180238723751E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6330,11 +6256,10 @@
         <v>0.9854317307472229</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F76">
@@ -6352,11 +6277,10 @@
         <v>1.371708605438471E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6371,11 +6295,10 @@
         <v>1.442403998225927E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6390,11 +6313,10 @@
         <v>1.37579832226038E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6409,11 +6331,10 @@
         <v>1.9591394811868671E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6428,11 +6349,10 @@
         <v>1.7373742535710331E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6447,11 +6367,10 @@
         <v>2.282013185322285E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6466,11 +6385,10 @@
         <v>0.73821800947189331</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F83">
@@ -6488,11 +6406,10 @@
         <v>1.3785999268293381E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6507,11 +6424,10 @@
         <v>1.383309438824654E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6526,11 +6442,10 @@
         <v>1.358891744166613E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6545,11 +6460,10 @@
         <v>1.386642549186945E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6564,11 +6478,10 @@
         <v>1.3927425257861611E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6583,11 +6496,10 @@
         <v>0.98505187034606934</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F89">
@@ -6605,11 +6517,10 @@
         <v>1.377003453671932E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6624,11 +6535,10 @@
         <v>1.374259870499372E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6643,11 +6553,10 @@
         <v>1.7758818343281749E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6662,11 +6571,10 @@
         <v>0.21730464696884161</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6681,11 +6589,10 @@
         <v>1.5870850533246991E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6700,11 +6607,10 @@
         <v>1.6287848353385929E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6719,11 +6625,10 @@
         <v>1.4096253551542761E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6738,11 +6643,10 @@
         <v>0.90677565336227417</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6757,11 +6661,10 @@
         <v>0.98525029420852661</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F98">
@@ -6779,11 +6682,10 @@
         <v>1.6485484316945079E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6798,11 +6700,10 @@
         <v>1.3927759602665899E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6817,11 +6718,10 @@
         <v>3.0555948615074161E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6836,11 +6736,10 @@
         <v>1.8096264451742169E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6855,11 +6754,10 @@
         <v>0.92781001329421997</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6874,11 +6772,10 @@
         <v>2.781131491065025E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6893,11 +6790,10 @@
         <v>1.8240755423903469E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6912,11 +6808,10 @@
         <v>0.54909348487854004</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F106">
@@ -6934,11 +6829,10 @@
         <v>3.7973213940858841E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6953,11 +6847,10 @@
         <v>2.429310604929924E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6972,11 +6865,10 @@
         <v>0.98538345098495483</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F109">
@@ -6994,11 +6886,10 @@
         <v>0.98159694671630859</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F110">
@@ -7016,11 +6907,10 @@
         <v>3.5006310790777213E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7035,11 +6925,10 @@
         <v>4.2209729552268982E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7054,11 +6943,10 @@
         <v>1.528038922697306E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7073,11 +6961,10 @@
         <v>0.95218133926391602</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F114">
@@ -7095,11 +6982,10 @@
         <v>1.4884295873343939E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7114,11 +7000,10 @@
         <v>1.389504596590996E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7133,11 +7018,10 @@
         <v>1.499601546674967E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7152,11 +7036,10 @@
         <v>8.1778384745121002E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7171,11 +7054,10 @@
         <v>1.3989812694489959E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7190,11 +7072,10 @@
         <v>3.4981448203325272E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7209,11 +7090,10 @@
         <v>0.98521625995635986</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7228,11 +7108,10 @@
         <v>1.641334593296051E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7247,11 +7126,10 @@
         <v>3.9386607706546783E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7266,11 +7144,10 @@
         <v>1.370774861425161E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7285,11 +7162,10 @@
         <v>0.98021745681762695</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F125">
@@ -7307,11 +7183,10 @@
         <v>3.0943714082241058E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7326,11 +7201,10 @@
         <v>1.513064373284578E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7345,11 +7219,10 @@
         <v>1.383944321423769E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7364,11 +7237,10 @@
         <v>1.3689755462110041E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7383,11 +7255,10 @@
         <v>0.98421764373779297</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
       <c r="F130">
@@ -7405,11 +7276,10 @@
         <v>1.497952919453382E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7424,11 +7294,10 @@
         <v>1.3738675974309439E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7443,11 +7312,10 @@
         <v>0.98178446292877197</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F133">
@@ -7465,11 +7333,10 @@
         <v>0.82966357469558716</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F134">
@@ -7487,11 +7354,10 @@
         <v>0.21780341863632199</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7506,11 +7372,10 @@
         <v>0.73117196559906006</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F136">
@@ -7528,11 +7393,10 @@
         <v>4.3849226087331772E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7547,11 +7411,10 @@
         <v>1.472669001668692E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7566,11 +7429,10 @@
         <v>0.98511397838592529</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F139">
@@ -7588,11 +7450,10 @@
         <v>2.2253222763538361E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7607,11 +7468,10 @@
         <v>1.6065385192632679E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7626,11 +7486,10 @@
         <v>2.3564577102661129E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7645,11 +7504,10 @@
         <v>1.465328875929117E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7664,11 +7522,10 @@
         <v>1.413819100707769E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7683,11 +7540,10 @@
         <v>0.9854164719581604</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F145">
@@ -7705,11 +7561,10 @@
         <v>3.2475419342517853E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7724,11 +7579,10 @@
         <v>0.21752965450286871</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7743,11 +7597,10 @@
         <v>0.21742349863052371</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7762,11 +7615,10 @@
         <v>0.21742349863052371</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7781,11 +7633,10 @@
         <v>1.395389903336763E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7800,11 +7651,10 @@
         <v>4.3441615998744958E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7819,11 +7669,10 @@
         <v>1.5672627836465839E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7838,11 +7687,10 @@
         <v>0.98541325330734253</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F153">
@@ -7860,11 +7708,10 @@
         <v>1.370794232934713E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7879,11 +7726,10 @@
         <v>2.9306860640645031E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7898,11 +7744,10 @@
         <v>1.417559199035168E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7917,11 +7762,10 @@
         <v>1.37576200067997E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7936,11 +7780,10 @@
         <v>0.98547977209091187</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7955,11 +7798,10 @@
         <v>0.98547947406768799</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7974,11 +7816,10 @@
         <v>0.98546046018600464</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7993,11 +7834,10 @@
         <v>1.748837344348431E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8012,11 +7852,10 @@
         <v>0.98547422885894775</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8031,11 +7870,10 @@
         <v>0.97920644283294678</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8050,11 +7888,10 @@
         <v>1.451212912797928E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8069,11 +7906,10 @@
         <v>1.909497007727623E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8088,11 +7924,10 @@
         <v>0.6417992115020752</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F166">
@@ -8110,11 +7945,10 @@
         <v>1.3823132030665869E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8129,11 +7963,10 @@
         <v>0.98547559976577759</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8148,11 +7981,10 @@
         <v>1.457880344241858E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8167,11 +7999,10 @@
         <v>1.3639683835208419E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8186,11 +8017,10 @@
         <v>2.3046264424920079E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8205,11 +8035,10 @@
         <v>1.39628117904067E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8224,11 +8053,10 @@
         <v>1.4130182564258581E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8243,11 +8071,10 @@
         <v>1.369944214820862E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8262,11 +8089,10 @@
         <v>1.4047054573893551E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8281,11 +8107,10 @@
         <v>1.4539342373609539E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8300,11 +8125,10 @@
         <v>0.984283447265625</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F177">
@@ -8322,11 +8146,10 @@
         <v>1.7207898199558262E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8341,11 +8164,10 @@
         <v>1.6071829944849011E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8360,11 +8182,10 @@
         <v>0.98467779159545898</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8379,11 +8200,10 @@
         <v>0.98498421907424927</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F181">
@@ -8401,11 +8221,10 @@
         <v>1.535188499838114E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8420,11 +8239,10 @@
         <v>0.98546683788299561</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8439,11 +8257,10 @@
         <v>0.98277837038040161</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F184">
@@ -8461,11 +8278,10 @@
         <v>1.433676108717918E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8480,11 +8296,10 @@
         <v>1.3985577970743179E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8499,11 +8314,10 @@
         <v>3.8001932203769677E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8518,11 +8332,10 @@
         <v>1.383265759795904E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8537,11 +8350,10 @@
         <v>1.3718654401600359E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8556,11 +8368,10 @@
         <v>1.497954968363047E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8575,11 +8386,10 @@
         <v>1.365440711379051E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8594,11 +8404,10 @@
         <v>7.0981606841087341E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8613,11 +8422,10 @@
         <v>1.4223596081137661E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8632,11 +8440,10 @@
         <v>1.611515507102013E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -8651,11 +8458,10 @@
         <v>0.98537617921829224</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F195">
@@ -8673,11 +8479,10 @@
         <v>0.98506736755371094</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8692,11 +8497,10 @@
         <v>0.98497587442398071</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8711,11 +8515,10 @@
         <v>0.93142908811569214</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F198">
@@ -8733,11 +8536,10 @@
         <v>1.523363590240479E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8752,11 +8554,10 @@
         <v>2.651656232774258E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8771,11 +8572,10 @@
         <v>1.4612085185945031E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8790,11 +8590,10 @@
         <v>0.65669459104537964</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F202">
@@ -8812,11 +8611,10 @@
         <v>3.8846787065267563E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8831,11 +8629,10 @@
         <v>4.3395392596721649E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8850,11 +8647,10 @@
         <v>1.36238532140851E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8869,11 +8665,10 @@
         <v>1.50628350675106E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8888,11 +8683,10 @@
         <v>1.3718764297664171E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8907,11 +8701,10 @@
         <v>1.46943861618638E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8926,11 +8719,10 @@
         <v>1.367602124810219E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8945,11 +8737,10 @@
         <v>0.98533171415328979</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F210">
@@ -8967,11 +8758,10 @@
         <v>5.450526624917984E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8986,11 +8776,10 @@
         <v>3.7237446755170822E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9005,11 +8794,10 @@
         <v>0.98377084732055664</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F213">
@@ -9027,11 +8815,10 @@
         <v>1.389945670962334E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9046,11 +8833,10 @@
         <v>0.98538577556610107</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9065,11 +8851,10 @@
         <v>1.363367959856987E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9084,11 +8869,10 @@
         <v>1.3714481145143511E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9103,11 +8887,10 @@
         <v>1.3654587790369989E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9122,11 +8905,10 @@
         <v>1.382518000900745E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9141,11 +8923,10 @@
         <v>0.98547202348709106</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F220">
@@ -9163,11 +8944,10 @@
         <v>0.98547214269638062</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9182,11 +8962,10 @@
         <v>1.3766913674771789E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9201,11 +8980,10 @@
         <v>1.890820637345314E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9220,11 +8998,10 @@
         <v>1.368311792612076E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9239,11 +9016,10 @@
         <v>1.3556128367781641E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9258,11 +9034,10 @@
         <v>4.5961730182170868E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9277,11 +9052,10 @@
         <v>3.4245751798152917E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9296,11 +9070,10 @@
         <v>1.3871460221707819E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9315,11 +9088,10 @@
         <v>1.3943038880825039E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9334,11 +9106,10 @@
         <v>1.39844473451376E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9353,11 +9124,10 @@
         <v>4.0662810206413269E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9372,11 +9142,10 @@
         <v>0.98443710803985596</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F232">
@@ -9394,11 +9163,10 @@
         <v>2.027763053774834E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9413,11 +9181,10 @@
         <v>0.21770370006561279</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9432,11 +9199,10 @@
         <v>1.3656327500939369E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9451,11 +9217,10 @@
         <v>1.414898689836264E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9470,11 +9235,10 @@
         <v>1.4078458771109579E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9489,11 +9253,10 @@
         <v>0.96425247192382813</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F238">
@@ -9511,11 +9274,10 @@
         <v>0.98547053337097168</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F239">
@@ -9533,11 +9295,10 @@
         <v>0.98177403211593628</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F240">
@@ -9555,11 +9316,10 @@
         <v>1.384900137782097E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9574,11 +9334,10 @@
         <v>1.3611229136586189E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9593,11 +9352,10 @@
         <v>1.377468556165695E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9612,11 +9370,10 @@
         <v>1.443776581436396E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9631,11 +9388,10 @@
         <v>0.9812282919883728</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F245">
@@ -9653,11 +9409,10 @@
         <v>1.494245976209641E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9672,11 +9427,10 @@
         <v>0.98547136783599854</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F247">
@@ -9694,11 +9448,10 @@
         <v>2.991919219493866E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9713,11 +9466,10 @@
         <v>4.1040621697902679E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9732,11 +9484,10 @@
         <v>1.4420162886381149E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9751,11 +9502,10 @@
         <v>0.93616628646850586</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F251">
@@ -9773,11 +9523,10 @@
         <v>1.47699061781168E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9792,11 +9541,10 @@
         <v>1.381178759038448E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9811,11 +9559,10 @@
         <v>1.418847683817148E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9830,11 +9577,10 @@
         <v>1.369125489145517E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9849,11 +9595,10 @@
         <v>1.3682340271770951E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9868,11 +9613,10 @@
         <v>1.403524447232485E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9887,11 +9631,10 @@
         <v>0.98358684778213501</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
       <c r="F258">
@@ -9909,11 +9652,10 @@
         <v>7.4822209775447845E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9928,11 +9670,10 @@
         <v>1.4810323715209959E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9947,11 +9688,10 @@
         <v>1.3847229070961481E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9966,11 +9706,10 @@
         <v>1.3870794326066971E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9985,11 +9724,10 @@
         <v>1.394134666770697E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10004,11 +9742,10 @@
         <v>1.358758099377155E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10023,11 +9760,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10042,11 +9778,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10061,11 +9796,10 @@
         <v>1.837285794317722E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10080,11 +9814,10 @@
         <v>0.95979857444763184</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F268">
@@ -10102,11 +9835,10 @@
         <v>1.401825062930584E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10121,11 +9853,10 @@
         <v>1.372077129781246E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10140,11 +9871,10 @@
         <v>1.367479283362627E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10159,11 +9889,10 @@
         <v>2.608034759759903E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10178,11 +9907,10 @@
         <v>1.5963152050971981E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10197,11 +9925,10 @@
         <v>1.3579051941633219E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10216,11 +9943,10 @@
         <v>1.3647454790771009E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10235,11 +9961,10 @@
         <v>1.375800743699074E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10254,11 +9979,10 @@
         <v>0.2175859808921814</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10273,11 +9997,10 @@
         <v>1.379276998341084E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10292,11 +10015,10 @@
         <v>4.0175784379243851E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10311,11 +10033,10 @@
         <v>0.2175859808921814</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10330,11 +10051,10 @@
         <v>1.3745131902396681E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10349,11 +10069,10 @@
         <v>5.5646710097789757E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10368,11 +10087,10 @@
         <v>1.3844806700944901E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10387,11 +10105,10 @@
         <v>0.35619187355041498</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10406,11 +10123,10 @@
         <v>1.419687736779451E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10425,11 +10141,10 @@
         <v>1.359229814261198E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10444,11 +10159,10 @@
         <v>1.394202932715416E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10463,11 +10177,10 @@
         <v>0.21726515889167791</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10482,11 +10195,10 @@
         <v>1.366894878447056E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10501,11 +10213,10 @@
         <v>1.3614366762340071E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10520,11 +10231,10 @@
         <v>1.386736426502466E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10539,11 +10249,10 @@
         <v>0.21742197871208191</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10558,11 +10267,10 @@
         <v>0.21742197871208191</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10577,11 +10285,10 @@
         <v>0.98513168096542358</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10596,11 +10303,10 @@
         <v>1.3688261620700359E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10615,11 +10321,10 @@
         <v>1.8467169255018231E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10634,11 +10339,10 @@
         <v>1.420140266418457E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10653,11 +10357,10 @@
         <v>0.93069779872894287</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F298">
@@ -10675,11 +10378,10 @@
         <v>1.3868238776922229E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10694,11 +10396,10 @@
         <v>0.93069779872894287</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F300">
@@ -10716,11 +10417,10 @@
         <v>1.426864787936211E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10735,11 +10435,10 @@
         <v>1.385898143053055E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10754,11 +10453,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10773,11 +10471,10 @@
         <v>1.438476238399744E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10792,11 +10489,10 @@
         <v>1.383891794830561E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10811,11 +10507,10 @@
         <v>1.511300262063742E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10830,11 +10525,10 @@
         <v>1.3884870335459709E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10849,11 +10543,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10868,11 +10561,10 @@
         <v>1.3794358819723129E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10887,11 +10579,10 @@
         <v>3.3933255821466453E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10906,11 +10597,10 @@
         <v>1.8144417554140091E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10925,11 +10615,10 @@
         <v>1.428489573299885E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10944,11 +10633,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10963,11 +10651,10 @@
         <v>1.4279188588261601E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10982,11 +10669,10 @@
         <v>1.368778478354216E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11001,11 +10687,10 @@
         <v>1.380991004407406E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11020,11 +10705,10 @@
         <v>1.3961669988930231E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11039,11 +10723,10 @@
         <v>0.96829110383987427</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F318">
@@ -11061,11 +10744,10 @@
         <v>1.3951406814157959E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11080,11 +10762,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11099,11 +10780,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11118,11 +10798,10 @@
         <v>0.97882926464080811</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
       <c r="F322">
@@ -11140,11 +10819,10 @@
         <v>1.4409316703677179E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11159,11 +10837,10 @@
         <v>1.390872057527304E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11178,11 +10855,10 @@
         <v>1.5048529952764509E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11197,11 +10873,10 @@
         <v>4.2944356799125671E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11216,11 +10891,10 @@
         <v>1.3895757496356961E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11235,11 +10909,10 @@
         <v>1.4273189939558509E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11254,11 +10927,10 @@
         <v>1.516016013920307E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11273,11 +10945,10 @@
         <v>1.4591969549655911E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11292,11 +10963,10 @@
         <v>1.547486707568169E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11311,11 +10981,10 @@
         <v>1.407479867339134E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11330,11 +10999,10 @@
         <v>0.2175565958023071</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11349,11 +11017,10 @@
         <v>1.399974245578051E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11368,11 +11035,10 @@
         <v>1.383503898978233E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11387,11 +11053,10 @@
         <v>1.3928322121500971E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11406,11 +11071,10 @@
         <v>1.359349396079779E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11425,11 +11089,10 @@
         <v>1.364095415920019E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11444,11 +11107,10 @@
         <v>1.411174330860376E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11463,11 +11125,10 @@
         <v>1.9734591245651249E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11482,11 +11143,10 @@
         <v>1.6026861965656281E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11501,11 +11161,10 @@
         <v>1.4899007044732571E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11520,11 +11179,10 @@
         <v>1.360928919166327E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11539,11 +11197,10 @@
         <v>0.2175319492816925</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11558,11 +11215,10 @@
         <v>3.7516564130783081E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11577,11 +11233,10 @@
         <v>1.357989478856325E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11596,11 +11251,10 @@
         <v>0.79470175504684448</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F347">
@@ -11618,11 +11272,10 @@
         <v>1.366703864187002E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11637,11 +11290,10 @@
         <v>0.21708227694034579</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11656,11 +11308,10 @@
         <v>1.405610516667366E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11675,11 +11326,10 @@
         <v>1.3834173791110521E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11694,11 +11344,10 @@
         <v>1.3791770674288269E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11713,11 +11362,10 @@
         <v>1.3865897431969639E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11732,11 +11380,10 @@
         <v>1.376613136380911E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11751,11 +11398,10 @@
         <v>1.38069111853838E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11770,11 +11416,10 @@
         <v>0.98547804355621338</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F356">
@@ -11792,11 +11437,10 @@
         <v>1.4051254838705059E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11811,11 +11455,10 @@
         <v>1.422358211129904E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11830,11 +11473,10 @@
         <v>1.590324193239212E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11849,11 +11491,10 @@
         <v>0.98544728755950928</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11868,11 +11509,10 @@
         <v>3.9585072547197342E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11887,11 +11527,10 @@
         <v>3.8378633558750153E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11906,11 +11545,10 @@
         <v>0.98166096210479736</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11925,11 +11563,10 @@
         <v>0.98541748523712158</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11944,11 +11581,10 @@
         <v>1.386625505983829E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11963,11 +11599,10 @@
         <v>0.98526626825332642</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11982,11 +11617,10 @@
         <v>2.03545056283474E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12001,11 +11635,10 @@
         <v>0.98503404855728149</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12020,11 +11653,10 @@
         <v>2.535199373960495E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12039,11 +11671,10 @@
         <v>0.98547953367233276</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12058,11 +11689,10 @@
         <v>1.3963567093014721E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12077,11 +11707,10 @@
         <v>1.389638520777225E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12096,11 +11725,10 @@
         <v>0.98172688484191895</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F373">
@@ -12118,11 +11746,10 @@
         <v>1.5109879896044729E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12137,11 +11764,10 @@
         <v>0.98548775911331177</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12156,11 +11782,10 @@
         <v>0.98530721664428711</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12175,11 +11800,10 @@
         <v>1.366548985242844E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12194,11 +11818,10 @@
         <v>2.019738033413887E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12213,11 +11836,10 @@
         <v>1.360586564987898E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12232,11 +11854,10 @@
         <v>0.98547989130020142</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12251,11 +11872,10 @@
         <v>0.98238098621368408</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F381">
@@ -12273,11 +11893,10 @@
         <v>1.3617761433124541E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12292,11 +11911,10 @@
         <v>0.98548811674118042</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12311,11 +11929,10 @@
         <v>0.2174677103757858</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12330,11 +11947,10 @@
         <v>0.98547446727752686</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -12349,11 +11965,10 @@
         <v>2.736533060669899E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -12368,11 +11983,10 @@
         <v>1.6306286677718159E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12387,11 +12001,10 @@
         <v>1.446450408548117E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12406,11 +12019,10 @@
         <v>1.495892647653818E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12425,11 +12037,10 @@
         <v>1.5751911327242851E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12444,11 +12055,10 @@
         <v>1.373354718089104E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12463,11 +12073,10 @@
         <v>4.66652512550354E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12482,11 +12091,10 @@
         <v>3.8015216588973999E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12501,11 +12109,10 @@
         <v>1.4519583433866501E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12520,11 +12127,10 @@
         <v>1.388969644904137E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12539,11 +12145,10 @@
         <v>0.98525339365005493</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F396">
@@ -12561,11 +12166,10 @@
         <v>9.1881357133388519E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12580,11 +12184,10 @@
         <v>4.2375087738037109E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12599,11 +12202,10 @@
         <v>0.74879300594329834</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F399">
@@ -12621,11 +12223,10 @@
         <v>1.3868941925466061E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12640,11 +12241,10 @@
         <v>1.439283695071936E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12659,11 +12259,10 @@
         <v>1.402977574616671E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12678,11 +12277,10 @@
         <v>0.12945866584777829</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12697,11 +12295,10 @@
         <v>1.415299903601408E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12716,11 +12313,10 @@
         <v>0.98544865846633911</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12735,11 +12331,10 @@
         <v>0.98547112941741943</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12754,11 +12349,10 @@
         <v>1.420110836625099E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12773,11 +12367,10 @@
         <v>0.98539549112319946</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12792,11 +12385,10 @@
         <v>4.4336449354887009E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12811,11 +12403,10 @@
         <v>1.4024947769939899E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12830,11 +12421,10 @@
         <v>1.383717358112335E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12849,11 +12439,10 @@
         <v>1.501629129052162E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12868,11 +12457,10 @@
         <v>1.371261011809111E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12887,11 +12475,10 @@
         <v>1.555304136127234E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12906,11 +12493,10 @@
         <v>1.387085299938917E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12925,11 +12511,10 @@
         <v>1.359871868044138E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12944,11 +12529,10 @@
         <v>1.3690861873328689E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12963,11 +12547,10 @@
         <v>1.390441786497831E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12982,11 +12565,10 @@
         <v>0.98529553413391113</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F419">
@@ -13004,11 +12586,10 @@
         <v>1.3951379805803301E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13023,11 +12604,10 @@
         <v>1.3811463490128521E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13042,11 +12622,10 @@
         <v>0.21744042634963989</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13061,11 +12640,10 @@
         <v>1.3708380982279779E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13080,11 +12658,10 @@
         <v>1.5414894558489319E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13099,11 +12676,10 @@
         <v>1.428634487092495E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13118,11 +12694,10 @@
         <v>0.21737375855445859</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13137,11 +12712,10 @@
         <v>0.2178947925567627</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13156,11 +12730,10 @@
         <v>1.38350585475564E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13175,11 +12748,10 @@
         <v>1.376042794436216E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13194,11 +12766,10 @@
         <v>1.3774114660918709E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13213,11 +12784,10 @@
         <v>1.374206226319075E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13232,11 +12802,10 @@
         <v>0.21740284562110901</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13251,11 +12820,10 @@
         <v>1.3685641810297969E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13270,11 +12838,10 @@
         <v>1.456175651401281E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13289,11 +12856,10 @@
         <v>1.434479560703039E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13308,11 +12874,10 @@
         <v>1.36316604912281E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13327,11 +12892,10 @@
         <v>1.3891054317355159E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13346,11 +12910,10 @@
         <v>0.21759688854217529</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13365,11 +12928,10 @@
         <v>1.375938672572374E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13384,11 +12946,10 @@
         <v>3.7223491817712777E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13403,11 +12964,10 @@
         <v>0.90079706907272339</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F441">
@@ -13425,11 +12985,10 @@
         <v>1.401861291378736E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13444,11 +13003,10 @@
         <v>0.2176273912191391</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13463,11 +13021,10 @@
         <v>0.2174861282110214</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13482,11 +13039,10 @@
         <v>1.4171388000249859E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13501,11 +13057,10 @@
         <v>1.3713010586798189E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13520,11 +13075,10 @@
         <v>2.3054007440805439E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13539,11 +13093,10 @@
         <v>3.4021999686956413E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13558,11 +13111,10 @@
         <v>6.8085059523582458E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13577,11 +13129,10 @@
         <v>0.21747016906738281</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13596,11 +13147,10 @@
         <v>2.1090226247906681E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13615,11 +13165,10 @@
         <v>1.4312173239886761E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13634,11 +13183,10 @@
         <v>1.473673339933157E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13653,11 +13201,10 @@
         <v>1.3801133260130881E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13672,11 +13219,10 @@
         <v>1.459594536572695E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13691,11 +13237,10 @@
         <v>2.4612052366137501E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13710,11 +13255,10 @@
         <v>2.4952767416834831E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13729,11 +13273,10 @@
         <v>0.98547989130020142</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13748,11 +13291,10 @@
         <v>1.41958761960268E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13767,11 +13309,10 @@
         <v>0.98491686582565308</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F460">
@@ -13789,11 +13330,10 @@
         <v>1.548038981854916E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13808,11 +13348,10 @@
         <v>1.370529178529978E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13827,11 +13366,10 @@
         <v>1.3883800245821479E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13846,11 +13384,10 @@
         <v>2.6693223044276241E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13865,11 +13402,10 @@
         <v>1.365502458065748E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13884,11 +13420,10 @@
         <v>2.173571661114693E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13903,11 +13438,10 @@
         <v>1.3999399729073049E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13922,11 +13456,10 @@
         <v>1.9013037905097011E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13941,11 +13474,10 @@
         <v>1.957516185939312E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13960,11 +13492,10 @@
         <v>2.169065922498703E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13979,11 +13510,10 @@
         <v>1.371819619089365E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13998,11 +13528,10 @@
         <v>1.401394698768854E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14017,11 +13546,10 @@
         <v>1.582924090325832E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14036,11 +13564,10 @@
         <v>0.97954326868057251</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F474">
@@ -14058,11 +13585,10 @@
         <v>0.21783192455768591</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14077,11 +13603,10 @@
         <v>1.3681238517165181E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14096,11 +13621,10 @@
         <v>1.3902894221246241E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14115,11 +13639,10 @@
         <v>0.2177301496267319</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14134,11 +13657,10 @@
         <v>2.22586989402771E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14153,11 +13675,10 @@
         <v>1.376817002892494E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14172,11 +13693,10 @@
         <v>1.564218103885651E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14191,11 +13711,10 @@
         <v>1.489948946982622E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14210,11 +13729,10 @@
         <v>1.656289771199226E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14229,11 +13747,10 @@
         <v>1.363842654973269E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14248,11 +13765,10 @@
         <v>1.403163466602564E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14267,11 +13783,10 @@
         <v>0.27353179454803472</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14286,11 +13801,10 @@
         <v>0.98411256074905396</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F487">
@@ -14308,11 +13822,10 @@
         <v>1.356699783354998E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14327,11 +13840,10 @@
         <v>3.6932311952114112E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14346,11 +13858,10 @@
         <v>1.3851260766386989E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14365,11 +13876,10 @@
         <v>1.3921637088060381E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14384,11 +13894,10 @@
         <v>1.393597386777401E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14403,11 +13912,10 @@
         <v>1.386814098805189E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14422,11 +13930,10 @@
         <v>0.17883701622486109</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14441,11 +13948,10 @@
         <v>0.98399239778518677</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F495">
@@ -14463,11 +13969,10 @@
         <v>5.7300951331853867E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14482,11 +13987,10 @@
         <v>4.1945114731788642E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14501,11 +14005,10 @@
         <v>1.4085224829614161E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14520,11 +14023,10 @@
         <v>1.365720108151436E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14539,11 +14041,10 @@
         <v>1.393438689410686E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14558,11 +14059,10 @@
         <v>0.98418182134628296</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14577,11 +14077,10 @@
         <v>0.93637239933013916</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14596,11 +14095,10 @@
         <v>8.4899023175239563E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14615,11 +14113,10 @@
         <v>4.0859270840883262E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14634,11 +14131,10 @@
         <v>0.98422318696975708</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14653,11 +14149,10 @@
         <v>0.98155504465103149</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14672,11 +14167,10 @@
         <v>8.5880503058433533E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14691,11 +14185,10 @@
         <v>1.397737395018339E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14710,11 +14203,10 @@
         <v>1.4186082407832149E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14729,11 +14221,10 @@
         <v>1.405761856585741E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14748,11 +14239,10 @@
         <v>1.6389690339565281E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14767,11 +14257,10 @@
         <v>5.6455645710229867E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14786,11 +14275,10 @@
         <v>1.4084304682910441E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14805,11 +14293,10 @@
         <v>1.397908199578524E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -14824,11 +14311,10 @@
         <v>0.98542952537536621</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F515">
@@ -14846,11 +14332,10 @@
         <v>8.0950453877449036E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14865,11 +14350,10 @@
         <v>1.384435221552849E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14884,11 +14368,10 @@
         <v>1.393723208457232E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14903,11 +14386,10 @@
         <v>1.403073873370886E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14922,11 +14404,10 @@
         <v>1.3638861477375031E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14941,11 +14422,10 @@
         <v>1.3826083391904829E-2</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14960,11 +14440,10 @@
         <v>1.379942614585161E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14979,11 +14458,10 @@
         <v>1.4021532610058779E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14998,11 +14476,10 @@
         <v>1.403573993593454E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15017,11 +14494,10 @@
         <v>1.402930077165365E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15036,11 +14512,10 @@
         <v>1.368971634656191E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15055,11 +14530,10 @@
         <v>0.2169889360666275</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15074,11 +14548,10 @@
         <v>1.4306799508631229E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15093,11 +14566,10 @@
         <v>1.4451988041400909E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15112,11 +14584,10 @@
         <v>1.3796701095998291E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15131,11 +14602,10 @@
         <v>0.96036458015441895</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F531">
@@ -15153,11 +14623,10 @@
         <v>0.98534226417541504</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15172,11 +14641,10 @@
         <v>2.386379241943359E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15191,11 +14659,10 @@
         <v>0.65152931213378906</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F534">
@@ -15213,11 +14680,10 @@
         <v>0.85024505853652954</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15232,11 +14698,10 @@
         <v>1.7148982733488079E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15251,11 +14716,10 @@
         <v>1.3968668878078461E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15270,11 +14734,10 @@
         <v>1.531788613647223E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15289,11 +14752,10 @@
         <v>1.417980249971151E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15308,11 +14770,10 @@
         <v>0.21747016906738281</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15327,11 +14788,10 @@
         <v>2.068909257650375E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15346,11 +14806,10 @@
         <v>1.378875505179167E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15365,11 +14824,10 @@
         <v>1.3970593921840189E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15384,11 +14842,10 @@
         <v>4.9262352287769318E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15403,11 +14860,10 @@
         <v>1.471401285380125E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15422,11 +14878,10 @@
         <v>4.3319050222635269E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15441,11 +14896,10 @@
         <v>1.386710349470377E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15460,11 +14914,10 @@
         <v>0.96558350324630737</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F548">
@@ -15482,11 +14935,10 @@
         <v>1.4304653741419321E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15501,11 +14953,10 @@
         <v>0.97768563032150269</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15520,11 +14971,10 @@
         <v>2.1932205185294151E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15539,11 +14989,10 @@
         <v>1.7995880916714668E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15558,11 +15007,10 @@
         <v>0.98535615205764771</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15577,11 +15025,10 @@
         <v>1.3929475098848339E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15596,11 +15043,10 @@
         <v>0.98504453897476196</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F555">
@@ -15618,11 +15064,10 @@
         <v>1.3807248324155809E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15637,11 +15082,10 @@
         <v>1.396211609244347E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15656,11 +15100,10 @@
         <v>1.389091089367867E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15675,11 +15118,10 @@
         <v>0.97157245874404907</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F559">
@@ -15697,11 +15139,10 @@
         <v>3.893781453371048E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15716,11 +15157,10 @@
         <v>1.383181847631931E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15735,11 +15175,10 @@
         <v>3.9362393319606781E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15754,11 +15193,10 @@
         <v>5.1385995000600808E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15773,11 +15211,10 @@
         <v>0.21740332245826721</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15792,11 +15229,10 @@
         <v>1.371075306087732E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15811,11 +15247,10 @@
         <v>1.365759316831827E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15830,11 +15265,10 @@
         <v>1.3848817907273769E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15849,11 +15283,10 @@
         <v>0.90228432416915894</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F568">
@@ -15871,11 +15304,10 @@
         <v>1.475247088819742E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15890,11 +15322,10 @@
         <v>1.3639740645885469E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15909,11 +15340,10 @@
         <v>1.4116460457444189E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15928,11 +15358,10 @@
         <v>1.7292322590947151E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15947,11 +15376,10 @@
         <v>1.3699932023882869E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15966,11 +15394,10 @@
         <v>1.394419930875301E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15985,11 +15412,10 @@
         <v>1.378010772168636E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16004,11 +15430,10 @@
         <v>1.4191819354891781E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16023,11 +15448,10 @@
         <v>1.362944208085537E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -16042,11 +15466,10 @@
         <v>1.385188009589911E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -16061,11 +15484,10 @@
         <v>1.4016576111316679E-2</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16080,11 +15502,10 @@
         <v>0.98547506332397461</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F580">
@@ -16102,11 +15523,10 @@
         <v>1.3608322478830809E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16121,11 +15541,10 @@
         <v>1.357449777424335E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16140,11 +15559,10 @@
         <v>2.859515510499477E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16159,11 +15577,10 @@
         <v>1.3644855469465259E-2</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16178,11 +15595,10 @@
         <v>2.0313877612352371E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16197,11 +15613,10 @@
         <v>0.21744042634963989</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16216,11 +15631,10 @@
         <v>1.363928616046906E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16235,11 +15649,10 @@
         <v>1.5825355425477031E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16254,11 +15667,10 @@
         <v>1.3582781888544559E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16273,11 +15685,10 @@
         <v>1.3645586557686331E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16292,11 +15703,10 @@
         <v>1.3660638593137261E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16311,11 +15721,10 @@
         <v>1.394507102668285E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16330,11 +15739,10 @@
         <v>1.4242655597627159E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16349,11 +15757,10 @@
         <v>1.463986374437809E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16368,11 +15775,10 @@
         <v>1.400613505393267E-2</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16387,11 +15793,10 @@
         <v>0.98547297716140747</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16406,11 +15811,10 @@
         <v>1.370095554739237E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16425,11 +15829,10 @@
         <v>1.367195695638657E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16444,11 +15847,10 @@
         <v>1.364018302410841E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16463,11 +15865,10 @@
         <v>1.868626102805138E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16482,11 +15883,10 @@
         <v>1.585488952696323E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16501,11 +15901,10 @@
         <v>1.364735141396523E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16520,11 +15919,10 @@
         <v>1.3902091421186921E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16539,11 +15937,10 @@
         <v>1.4574564062058931E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16558,11 +15955,10 @@
         <v>2.07124650478363E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16577,11 +15973,10 @@
         <v>0.21770370006561279</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16596,11 +15991,10 @@
         <v>1.375635154545307E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16615,11 +16009,10 @@
         <v>1.3852725736796859E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16634,11 +16027,10 @@
         <v>1.365200616419315E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16653,11 +16045,10 @@
         <v>1.495120022445917E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16672,11 +16063,10 @@
         <v>0.98399537801742554</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F611">
@@ -16694,11 +16084,10 @@
         <v>1.4347599819302561E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16713,11 +16102,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F613">
@@ -16735,11 +16123,10 @@
         <v>0.98398429155349731</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F614">
@@ -16757,11 +16144,10 @@
         <v>0.98492485284805298</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F615">
@@ -16779,11 +16165,10 @@
         <v>0.98523521423339844</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16798,11 +16183,10 @@
         <v>0.19571588933467859</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16817,11 +16201,10 @@
         <v>1.3690102845430371E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16836,11 +16219,10 @@
         <v>0.97445219755172729</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F619">
@@ -16858,11 +16240,10 @@
         <v>1.3580311089754099E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16877,11 +16258,10 @@
         <v>0.28567212820053101</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16896,11 +16276,10 @@
         <v>1.358172763139009E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16915,11 +16294,10 @@
         <v>1.36795723810792E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16934,11 +16312,10 @@
         <v>1.3663670979440211E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16953,11 +16330,10 @@
         <v>1.358257792890072E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16972,11 +16348,10 @@
         <v>1.356867607682943E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16991,11 +16366,10 @@
         <v>1.358131971210241E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17010,11 +16384,10 @@
         <v>1.6644252464175221E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17029,11 +16402,10 @@
         <v>1.3655088841915131E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17048,11 +16420,10 @@
         <v>1.3932075351476669E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17067,11 +16438,10 @@
         <v>0.98523879051208496</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F631">
@@ -17089,11 +16459,10 @@
         <v>1.3910277746617791E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17108,11 +16477,10 @@
         <v>1.4486074447631839E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17127,11 +16495,10 @@
         <v>0.63868123292922974</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17146,11 +16513,10 @@
         <v>2.4840082973241809E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17165,11 +16531,10 @@
         <v>0.98543578386306763</v>
       </c>
       <c r="D636">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E636">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17184,11 +16549,10 @@
         <v>1.440723892301321E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17203,11 +16567,10 @@
         <v>0.98537802696228027</v>
       </c>
       <c r="D638">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E638">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17222,11 +16585,10 @@
         <v>2.7484992519021031E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17241,11 +16603,10 @@
         <v>0.98547375202178955</v>
       </c>
       <c r="D640">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E640">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -17260,11 +16621,10 @@
         <v>2.373516000807285E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17279,11 +16639,10 @@
         <v>0.9854741096496582</v>
       </c>
       <c r="D642">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E705" si="20">IF(ISBLANK(F642),D642,F642)</f>
         <v>0</v>
       </c>
       <c r="F642">
@@ -17301,11 +16660,10 @@
         <v>1.46313700824976E-2</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D706" si="21">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D706" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E643">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17320,11 +16678,10 @@
         <v>1.4196556992828849E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17339,11 +16696,10 @@
         <v>0.58469599485397339</v>
       </c>
       <c r="D645">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E645">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17358,11 +16714,10 @@
         <v>1.4034050516784189E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17377,11 +16732,10 @@
         <v>2.7781309559941288E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17396,11 +16750,10 @@
         <v>1.9588688388466838E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17415,11 +16768,10 @@
         <v>2.300716936588287E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17434,11 +16786,10 @@
         <v>0.98415040969848633</v>
       </c>
       <c r="D650">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E650">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17453,11 +16804,10 @@
         <v>0.21751624345779419</v>
       </c>
       <c r="D651">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17472,11 +16822,10 @@
         <v>0.98547399044036865</v>
       </c>
       <c r="D652">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E652">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17491,11 +16840,10 @@
         <v>0.98545515537261963</v>
       </c>
       <c r="D653">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E653">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17510,11 +16858,10 @@
         <v>0.98543345928192139</v>
       </c>
       <c r="D654">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E654">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F654">
@@ -17532,11 +16879,10 @@
         <v>1.482494734227657E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17551,11 +16897,10 @@
         <v>1.4510710723698139E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17570,11 +16915,10 @@
         <v>1.402513217180967E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17589,11 +16933,10 @@
         <v>1.756119541823864E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17608,11 +16951,10 @@
         <v>2.1557208150625229E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17627,11 +16969,10 @@
         <v>2.2093551233410839E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17646,11 +16987,10 @@
         <v>1.374586299061775E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17665,11 +17005,10 @@
         <v>1.362883951514959E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17684,11 +17023,10 @@
         <v>0.98536401987075806</v>
       </c>
       <c r="D663">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E663">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17703,11 +17041,10 @@
         <v>2.0841017365455631E-2</v>
       </c>
       <c r="D664">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E664">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17722,11 +17059,10 @@
         <v>1.368912309408188E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17741,11 +17077,10 @@
         <v>3.8903139531612403E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17760,11 +17095,10 @@
         <v>0.98546487092971802</v>
       </c>
       <c r="D667">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E667">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17779,11 +17113,10 @@
         <v>0.91266787052154541</v>
       </c>
       <c r="D668">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E668">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F668">
@@ -17801,11 +17134,10 @@
         <v>1.489747408777475E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17820,11 +17152,10 @@
         <v>0.98547178506851196</v>
       </c>
       <c r="D670">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E670">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F670">
@@ -17842,11 +17173,10 @@
         <v>1.409333758056164E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17861,11 +17191,10 @@
         <v>2.3449048399925228E-2</v>
       </c>
       <c r="D672">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17880,11 +17209,10 @@
         <v>0.98546820878982544</v>
       </c>
       <c r="D673">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E673">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17899,11 +17227,10 @@
         <v>1.6264798119664189E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17918,11 +17245,10 @@
         <v>0.72652441263198853</v>
       </c>
       <c r="D675">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E675">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F675">
@@ -17940,11 +17266,10 @@
         <v>1.5327462926507E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17959,11 +17284,10 @@
         <v>3.9082419127225883E-2</v>
       </c>
       <c r="D677">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17978,11 +17302,10 @@
         <v>1.429053675383329E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17997,11 +17320,10 @@
         <v>1.3628179207444189E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18016,11 +17338,10 @@
         <v>4.6602465212345123E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18035,11 +17356,10 @@
         <v>2.229644171893597E-2</v>
       </c>
       <c r="D681">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E681">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18054,11 +17374,10 @@
         <v>0.85006880760192871</v>
       </c>
       <c r="D682">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E682">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F682">
@@ -18076,11 +17395,10 @@
         <v>0.97343426942825317</v>
       </c>
       <c r="D683">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E683">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F683">
@@ -18098,11 +17416,10 @@
         <v>1.391500793397427E-2</v>
       </c>
       <c r="D684">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E684">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18117,11 +17434,10 @@
         <v>2.085155434906483E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18136,11 +17452,10 @@
         <v>3.611292690038681E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18155,11 +17470,10 @@
         <v>1.398368459194899E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18174,11 +17488,10 @@
         <v>0.98547875881195068</v>
       </c>
       <c r="D688">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E688">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18193,11 +17506,10 @@
         <v>1.373881194740534E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18212,11 +17524,10 @@
         <v>0.98547756671905518</v>
       </c>
       <c r="D690">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E690">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18231,11 +17542,10 @@
         <v>0.98495274782180786</v>
       </c>
       <c r="D691">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E691">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F691">
@@ -18253,11 +17563,10 @@
         <v>0.98541265726089478</v>
       </c>
       <c r="D692">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E692">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18272,11 +17581,10 @@
         <v>0.21774457395076749</v>
       </c>
       <c r="D693">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18291,11 +17599,10 @@
         <v>0.98533707857131958</v>
       </c>
       <c r="D694">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E694">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18310,11 +17617,10 @@
         <v>0.98540592193603516</v>
       </c>
       <c r="D695">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E695">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18329,11 +17635,10 @@
         <v>0.9501844048500061</v>
       </c>
       <c r="D696">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E696">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -18348,11 +17653,10 @@
         <v>0.21754783391952509</v>
       </c>
       <c r="D697">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E697">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18367,11 +17671,10 @@
         <v>1.515298523008823E-2</v>
       </c>
       <c r="D698">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E698">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18386,11 +17689,10 @@
         <v>1.4008143916726111E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18405,11 +17707,10 @@
         <v>2.6906978338956829E-2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18424,11 +17725,10 @@
         <v>1.3907649554312229E-2</v>
       </c>
       <c r="D701">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E701">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18443,11 +17743,10 @@
         <v>1.5423718839883801E-2</v>
       </c>
       <c r="D702">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E702">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18462,11 +17761,10 @@
         <v>6.5616048872470856E-2</v>
       </c>
       <c r="D703">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E703">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18481,11 +17779,10 @@
         <v>0.21726515889167791</v>
       </c>
       <c r="D704">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E704">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18500,11 +17797,10 @@
         <v>1.3857117854058741E-2</v>
       </c>
       <c r="D705">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E705">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -18519,11 +17815,10 @@
         <v>1.3748804107308389E-2</v>
       </c>
       <c r="D706">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E706">
-        <f t="shared" ref="E706:E751" si="22">IF(ISBLANK(F706),D706,F706)</f>
         <v>0</v>
       </c>
     </row>
@@ -18538,11 +17833,10 @@
         <v>0.21754783391952509</v>
       </c>
       <c r="D707">
-        <f t="shared" ref="D707:D751" si="23">IF(C707&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D707:D751" si="11">IF(C707&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E707">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18557,11 +17851,10 @@
         <v>1.361167058348656E-2</v>
       </c>
       <c r="D708">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E708">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18576,11 +17869,10 @@
         <v>0.98498976230621338</v>
       </c>
       <c r="D709">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E709">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F709">
@@ -18598,11 +17890,10 @@
         <v>0.98547911643981934</v>
       </c>
       <c r="D710">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E710">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18617,11 +17908,10 @@
         <v>0.9501844048500061</v>
       </c>
       <c r="D711">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E711">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -18636,11 +17926,10 @@
         <v>0.21747016906738281</v>
       </c>
       <c r="D712">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E712">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18655,11 +17944,10 @@
         <v>0.21747979521751401</v>
       </c>
       <c r="D713">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E713">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18674,11 +17962,10 @@
         <v>1.40078803524375E-2</v>
       </c>
       <c r="D714">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E714">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18693,11 +17980,10 @@
         <v>1.518536917865276E-2</v>
       </c>
       <c r="D715">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E715">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18712,11 +17998,10 @@
         <v>1.5612487681210039E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18731,11 +18016,10 @@
         <v>0.21753409504890439</v>
       </c>
       <c r="D717">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E717">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18750,11 +18034,10 @@
         <v>3.2270971685647958E-2</v>
       </c>
       <c r="D718">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E718">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18769,11 +18052,10 @@
         <v>1.5612487681210039E-2</v>
       </c>
       <c r="D719">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E719">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18788,11 +18070,10 @@
         <v>2.2279910743236538E-2</v>
       </c>
       <c r="D720">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E720">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18807,11 +18088,10 @@
         <v>1.778349652886391E-2</v>
       </c>
       <c r="D721">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E721">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18826,11 +18106,10 @@
         <v>3.9366882294416428E-2</v>
       </c>
       <c r="D722">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E722">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18845,11 +18124,10 @@
         <v>2.2279910743236538E-2</v>
       </c>
       <c r="D723">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E723">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18864,11 +18142,10 @@
         <v>1.565997302532196E-2</v>
       </c>
       <c r="D724">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E724">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18883,11 +18160,10 @@
         <v>1.473726518452168E-2</v>
       </c>
       <c r="D725">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E725">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18902,11 +18178,10 @@
         <v>1.3795279897749421E-2</v>
       </c>
       <c r="D726">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E726">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18921,11 +18196,10 @@
         <v>2.767870016396046E-2</v>
       </c>
       <c r="D727">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E727">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18940,11 +18214,10 @@
         <v>1.8040727823972699E-2</v>
       </c>
       <c r="D728">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E728">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18959,11 +18232,10 @@
         <v>1.6519010066986081E-2</v>
       </c>
       <c r="D729">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E729">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18978,11 +18250,10 @@
         <v>1.6946746036410332E-2</v>
       </c>
       <c r="D730">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E730">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -18997,11 +18268,10 @@
         <v>1.585355773568153E-2</v>
       </c>
       <c r="D731">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E731">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19016,11 +18286,10 @@
         <v>1.6045249998569489E-2</v>
       </c>
       <c r="D732">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E732">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19035,11 +18304,10 @@
         <v>1.5688179060816761E-2</v>
       </c>
       <c r="D733">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E733">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19054,11 +18322,10 @@
         <v>1.372913643717766E-2</v>
       </c>
       <c r="D734">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E734">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19073,11 +18340,10 @@
         <v>0.98547458648681641</v>
       </c>
       <c r="D735">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E735">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -19092,11 +18358,10 @@
         <v>0.98548084497451782</v>
       </c>
       <c r="D736">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E736">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -19111,11 +18376,10 @@
         <v>5.0181761384010308E-2</v>
       </c>
       <c r="D737">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E737">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19130,11 +18394,10 @@
         <v>0.98520004749298096</v>
       </c>
       <c r="D738">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E738">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -19149,11 +18412,10 @@
         <v>0.96652460098266602</v>
       </c>
       <c r="D739">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E739">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F739">
@@ -19171,11 +18433,10 @@
         <v>1.360031217336655E-2</v>
       </c>
       <c r="D740">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E740">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19190,11 +18451,10 @@
         <v>1.4251053333282471E-2</v>
       </c>
       <c r="D741">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E741">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19209,11 +18469,10 @@
         <v>0.93297469615936279</v>
       </c>
       <c r="D742">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E742">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F742">
@@ -19231,11 +18490,10 @@
         <v>1.3886529020965099E-2</v>
       </c>
       <c r="D743">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E743">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19250,11 +18508,10 @@
         <v>1.403945498168468E-2</v>
       </c>
       <c r="D744">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E744">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19269,11 +18526,10 @@
         <v>1.365345157682896E-2</v>
       </c>
       <c r="D745">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E745">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19288,11 +18544,10 @@
         <v>1.371232606470585E-2</v>
       </c>
       <c r="D746">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E746">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19307,11 +18562,10 @@
         <v>1.3887607492506501E-2</v>
       </c>
       <c r="D747">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E747">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19326,11 +18580,10 @@
         <v>2.1078124642372131E-2</v>
       </c>
       <c r="D748">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E748">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -19345,11 +18598,10 @@
         <v>0.98547005653381348</v>
       </c>
       <c r="D749">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E749">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F749">
@@ -19367,11 +18619,10 @@
         <v>0.98542052507400513</v>
       </c>
       <c r="D750">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E750">
-        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -19386,11 +18637,10 @@
         <v>0.98545897006988525</v>
       </c>
       <c r="D751">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E751">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F751">
